--- a/src/MITRE-INPUT.xlsx
+++ b/src/MITRE-INPUT.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Home\Fall 2023\Capstone Project\Dev\Zorivis\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CDD5931-CB90-46AF-B8A6-A1C4F3E43FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BEAE241-5147-4254-A31E-8BE944F6D1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36240" yWindow="225" windowWidth="21345" windowHeight="9060" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cerberus 73" sheetId="1" r:id="rId1"/>
-    <sheet name="Cerberus 74" sheetId="2" r:id="rId2"/>
-    <sheet name="Cerberus 78" sheetId="9" r:id="rId3"/>
-    <sheet name="Cerberus 79" sheetId="6" r:id="rId4"/>
-    <sheet name="Cerberus 80" sheetId="3" r:id="rId5"/>
-    <sheet name="Cerberus 84" sheetId="7" r:id="rId6"/>
-    <sheet name="Cerberus 85" sheetId="8" r:id="rId7"/>
-    <sheet name="Cerberus 89" sheetId="4" r:id="rId8"/>
-    <sheet name="Cerberus 90" sheetId="5" r:id="rId9"/>
+    <sheet name="Cerberus 63" sheetId="10" r:id="rId1"/>
+    <sheet name="Cerberus 73" sheetId="1" r:id="rId2"/>
+    <sheet name="Cerberus 74" sheetId="2" r:id="rId3"/>
+    <sheet name="Cerberus 78" sheetId="9" r:id="rId4"/>
+    <sheet name="Cerberus 79" sheetId="6" r:id="rId5"/>
+    <sheet name="Cerberus 80" sheetId="3" r:id="rId6"/>
+    <sheet name="Cerberus 84" sheetId="7" r:id="rId7"/>
+    <sheet name="Cerberus 85" sheetId="8" r:id="rId8"/>
+    <sheet name="Cerberus 89" sheetId="4" r:id="rId9"/>
+    <sheet name="Cerberus 90" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="43">
   <si>
     <t>T1402</t>
   </si>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1000,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E27BA30-5657-4E4E-B3F5-9324A2F33F6F}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,7 +1044,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1066,7 +1067,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1089,7 +1090,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1112,7 +1113,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1135,7 +1136,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1158,7 +1159,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1177,6 +1178,260 @@
       </c>
       <c r="G7">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1185,11 +1440,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,7 +1483,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1251,7 +1506,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -1274,7 +1529,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1297,7 +1552,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1320,7 +1575,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1343,7 +1598,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -1370,11 +1625,196 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,8 +2109,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1923,8 +2363,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2131,8 +2571,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,8 +2802,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2593,8 +3033,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,258 +3216,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>90</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>90</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>90</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>90</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/MITRE-INPUT.xlsx
+++ b/src/MITRE-INPUT.xlsx
@@ -1,42 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Home\Fall 2023\Capstone Project\Dev\Zorivis\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36D454A-7244-406A-B987-C6C6508C445A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68697937-03D1-4942-8A25-A7C2D013A726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30810" yWindow="165" windowWidth="21810" windowHeight="10740" activeTab="6" xr2:uid="{590FA4D6-8FD2-40F4-8F7C-94ED7BD332C0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample 66" sheetId="2" r:id="rId1"/>
-    <sheet name="Sample 67" sheetId="3" r:id="rId2"/>
-    <sheet name="Sample 68" sheetId="4" r:id="rId3"/>
-    <sheet name="Sample 69" sheetId="5" r:id="rId4"/>
+    <sheet name="Sample 55" sheetId="2" r:id="rId1"/>
+    <sheet name="Sample 80" sheetId="3" r:id="rId2"/>
+    <sheet name="Sample 81" sheetId="4" r:id="rId3"/>
+    <sheet name="Sample 83" sheetId="5" r:id="rId4"/>
+    <sheet name="Sample 103" sheetId="6" r:id="rId5"/>
+    <sheet name="Sample 104" sheetId="7" r:id="rId6"/>
+    <sheet name="Sample 105" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="44">
+  <si>
+    <t>technique_id</t>
+  </si>
+  <si>
+    <t>technique_description</t>
+  </si>
+  <si>
+    <t>tactic_description</t>
+  </si>
+  <si>
+    <t>matched_malicious_indicators_count</t>
+  </si>
+  <si>
+    <t>matched_suspicious_indicators_count</t>
+  </si>
+  <si>
+    <t>matched_informative_indicators_count</t>
+  </si>
+  <si>
+    <t>T1402</t>
+  </si>
+  <si>
+    <t>Broadcast Receivers</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>Persistence</t>
+  </si>
+  <si>
+    <t>T1412</t>
+  </si>
+  <si>
+    <t>Capture SMS Messages</t>
+  </si>
+  <si>
+    <t>Credential Access</t>
+  </si>
+  <si>
+    <t>T1114</t>
+  </si>
+  <si>
+    <t>Email Collection</t>
+  </si>
+  <si>
+    <t>Collection</t>
+  </si>
+  <si>
+    <t>T1429</t>
+  </si>
+  <si>
+    <t>Audio Capture</t>
+  </si>
+  <si>
+    <t>T1105</t>
+  </si>
+  <si>
+    <t>Ingress Tool Transfer</t>
+  </si>
   <si>
     <t>Command and Control</t>
   </si>
   <si>
-    <t>Ingress Tool Transfer</t>
-  </si>
-  <si>
-    <t>T1105</t>
+    <t>T1582</t>
+  </si>
+  <si>
+    <t>SMS Control</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
   <si>
     <t>Encrypted Channel</t>
@@ -45,16 +125,19 @@
     <t>T1573</t>
   </si>
   <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Capture SMS Messages</t>
-  </si>
-  <si>
-    <t>T1412</t>
-  </si>
-  <si>
-    <t>Credential Access</t>
+    <t>Application Layer Protocol</t>
+  </si>
+  <si>
+    <t>T1071</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Security Software Discovery</t>
+  </si>
+  <si>
+    <t>T1518.001</t>
   </si>
   <si>
     <t>Defense Evasion</t>
@@ -66,37 +149,31 @@
     <t>T1027</t>
   </si>
   <si>
-    <t>Persistence</t>
-  </si>
-  <si>
-    <t>Broadcast Receivers</t>
-  </si>
-  <si>
-    <t>T1402</t>
-  </si>
-  <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>matched_informative_indicators_count</t>
-  </si>
-  <si>
-    <t>matched_suspicious_indicators_count</t>
-  </si>
-  <si>
-    <t>matched_malicious_indicators_count</t>
-  </si>
-  <si>
-    <t>tactic_description</t>
-  </si>
-  <si>
-    <t>technique_description</t>
-  </si>
-  <si>
-    <t>technique_id</t>
-  </si>
-  <si>
-    <t>id</t>
+    <t>Internal Defacement</t>
+  </si>
+  <si>
+    <t>T1491.001</t>
+  </si>
+  <si>
+    <t>Exfiltration</t>
+  </si>
+  <si>
+    <t>Exfiltration Over C2 Channel</t>
+  </si>
+  <si>
+    <t>T1041</t>
+  </si>
+  <si>
+    <t>Data Encoding</t>
+  </si>
+  <si>
+    <t>T1132</t>
+  </si>
+  <si>
+    <t>Deobfuscate/Decode Files or Information</t>
+  </si>
+  <si>
+    <t>T1140</t>
   </si>
 </sst>
 </file>
@@ -171,7 +248,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -183,7 +260,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -230,6 +307,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,6 +359,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -416,8 +527,240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAF632C-EA59-4975-ACAF-33A15EAE1491}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF785D87-C72D-4A3F-9FAC-F54A39290E8D}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>55</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119D5170-754A-4AC7-8564-6D387123FB21}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -437,39 +780,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -483,16 +826,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -506,39 +849,39 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -552,22 +895,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -575,257 +918,140 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>80</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>80</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>80</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB19CDE6-7ACA-4923-94D8-0285DF835E41}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>80</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>67</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>67</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>67</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>67</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -834,8 +1060,331 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47D488E9-4A31-4CDC-B858-1F1CFD969894}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9BCCCD-9A1F-4D48-A0FE-4032C5DC4970}">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>81</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C65F52-969F-4058-8676-9C2F87DD5DCD}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -855,39 +1404,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -901,16 +1450,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -924,16 +1473,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -947,19 +1496,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -970,19 +1519,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -993,39 +1542,39 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1034,7 +1583,53 @@
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>83</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>83</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1042,17 +1637,249 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F05658-80DF-4834-B510-326AFEC18B8F}">
-  <dimension ref="A1:G8"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054B08C9-8353-47EF-A0A9-B147F7C169A2}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>103</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>103</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>103</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>103</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B296531-308D-4FDF-8A71-45D4FDD1CC05}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
@@ -1063,39 +1890,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1109,16 +1936,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1132,42 +1959,42 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1178,19 +2005,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1201,48 +2028,487 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>104</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144EDB18-9807-4F7F-BA49-6EC8F38975FD}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>105</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>105</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>105</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>105</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>105</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>105</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>105</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>105</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>105</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
